--- a/output/classeGenotiposCS_2022-06-28.xlsx
+++ b/output/classeGenotiposCS_2022-06-28.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,6 +389,4234 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(WTP6741:1-*/B7T7T812BT11XMIR162XGA21FAM1-49E6:B-)B&gt;B&gt;B&gt;B&gt;10-7-6-B-29-/UBYXE319</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>(WTP6741:1-*/B7T7T812BT11XMIR162XGA21FAM1-49E6:B-)B&gt;B&gt;B&gt;B&gt;10-7-6-B-29-/UBYYD379</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>5.13</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AG8070PRO3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>6.86</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AS1868PRO3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>5.57</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B6T7T943ZS2/UBYYE349</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>5.13</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B6T7T943ZS2/WYY8370</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>5.13</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B6Y6Y890/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>6.43</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B7T7T812ZS4/B7T1C128ZS1//1ZDB84</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>5.57</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DKB363PRO3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>5.13</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MG652PWU</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>5.13</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MG711PWU</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>6.43</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NK505VIP3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>6.86</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NK555VIP3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>5.13</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NS73VIP3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>5.57</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NS80VIP3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P3707VYH</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>4.27</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P3754PWU</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>4.27</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SZD6100ZL0</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>5.57</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SZF6101VIP3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>3.41</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WYF6191/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ZTU7026ZL2/1ZDB84</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>4.7</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ZTU7026ZL2/2AHB60</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ZTU7026ZL2/UBYFG188</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>5.57</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ZTU7026ZL2/UBYYE359</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20SUBU62</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>5.13</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(WTP6741:1-*/B7T7T812BT11XMIR162XGA21FAM1-49E6:B-)B&gt;B&gt;B&gt;B&gt;10-7-6-B-29-/UBYXE319</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>5.18</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(WTP6741:1-*/B7T7T812BT11XMIR162XGA21FAM1-49E6:B-)B&gt;B&gt;B&gt;B&gt;10-7-6-B-29-/UBYYD379</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>6.1</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AG8070PRO3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>7.02</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AS1868PRO3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>6.71</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B6T7T943ZS2/UBYYE349</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>5.79</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B6T7T943ZS2/WYY8370</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>5.48</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B6Y6Y890/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>5.79</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B7T7T812ZS4/B7T1C128ZS1//1ZDB84</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>5.79</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BG7640VYH</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>6.1</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DKB363PRO3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>5.48</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MG652PWU</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>5.79</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MG711PWU</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>6.41</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NK505VIP3</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>5.79</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NK555VIP3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>5.48</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NS73VIP3</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>5.79</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NS80VIP3</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>6.41</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>P3707VYH</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>5.79</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>P3754PWU</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>5.79</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SZD6100ZL0</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>5.79</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SZF6101VIP3</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>5.18</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>WYF6191/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>5.79</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ZTU7026ZL2/1ZDB84</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>5.48</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ZTU7026ZL2/2AHB60</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>5.79</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ZTU7026ZL2/UBYFG188</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>5.79</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ZTU7026ZL2/UBYYE359</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>20SUBU42</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>5.48</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2SHB03/1ARB88</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>5.57</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2XHB31ZS0/ZTU7026</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>6.4</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ACYFC487/B6T7T943ZS2</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>6.81</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>AG8700PRO3</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>7.64</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>AS1633PRO3</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>3.91</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>AS1820PRO3</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>5.57</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B2401PWU</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>3.08</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B6T7T943ZS2/B7T1C128ZS1/MTYFD277</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>7.23</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B6T7T943ZS2/UBYYE349</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>5.98</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B6Y6Y890/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>5.57</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B7T7T812ZS4/B7T1C128ZS1//1ZDB84</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>4.33</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BCTT924ZS2/B7T1C128ZS1/1ZDB84</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>5.16</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CTI354/B7T7T812ZS4</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>4.74</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>DKB255PRO3</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>4.74</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>DKB335PRO3</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>5.16</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>DKB360PRO3</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>4.74</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>LOYFB356/B6T7T943ZS2</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>5.98</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MG580PWU</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>6.4</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MG652PWU</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>5.16</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MG699PWU</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>5.98</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MT21400001</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>4.74</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MT21400029</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>4.33</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MT21400654</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>6.4</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NK555VIP3</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>5.98</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NS73VIP3</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>5.57</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NS80VIP3</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>6.4</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>P3707VYH</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>3.91</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>P3898</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>6.4</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PEFFB318/ZTU7026ZL2</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>7.64</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PEFFB368/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>7.64</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PEFXD256/WTP6741WT0</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>6.4</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PEFXD256/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>5.57</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PEYFA119/WTP6741WT0</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>6.81</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PEYFA119/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>6.81</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PEYFC229/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>6.4</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PEYOB268/ZTU7026ZL2</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>6.81</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SYC7131VIP3</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>4.74</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SZC4141VIP3</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>5.16</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SZD5031VIP3</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>4.74</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SZD5211VIP3</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>6.4</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SZF6101VIP3</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>3.91</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>UBTTG228ZL0/UBYXG377</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>5.98</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>UBYFD458/ZTU7026ZL2</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>5.98</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>UBYFG178/ZTU7026ZL2</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>7.64</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>UBYXC746/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>6.81</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>UBYXE319/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>5.57</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>UBYYD379/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>5.16</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>UBYYE359/ZTU7026ZL2</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>5.57</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>WTP6741ZL2/CTI354</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>5.57</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>WYF6150ZL1/PEUTE046</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>6.81</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>WYF6191/WTP6741ZL2</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>6.81</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>WYFA824/ZTU7026ZL2</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>6.4</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>WYY8370/ZTU7026ZL2</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>5.98</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ZTU7026WT1/PEYOB268</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>7.64</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ZTU7026WT1/UBYFD458</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>5.98</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ZTU7026WT1/WYFA824</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>6.4</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ZTU7026ZL2/2AHB60</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>5.57</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ZTU7026ZL2/UBYFG188</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>21WNBU34</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>5.16</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>AG8700PRO3</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>5.73</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>AS1633PRO3</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>4.86</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>AS1820PRO3</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>3.99</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>AS1868PRO3</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>4.34</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B2401PWU</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>4.51</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B2620PWU</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>5.21</v>
+      </c>
+      <c r="D114">
+        <v>6</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>DKB255PRO3</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>3.99</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>DKB335PRO3</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>4.16</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>DKB360PRO3</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>4.51</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>K9606VIP3</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>4.69</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>MG580PWU</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>4.69</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>MG593PWU</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>3.99</v>
+      </c>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>MG652PWU</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>4.16</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>NK503VIP3</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>4.86</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NK506VIP3</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>4.34</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>NK508</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>3.81</v>
+      </c>
+      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NK511VIP3</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>5.38</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NK520VIP3</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>4.69</v>
+      </c>
+      <c r="D126">
+        <v>6</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NK555VIP3</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>5.64</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NS75VIP3</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>4.86</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NS80VIP3</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>5.38</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NS88VIP3</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>4.51</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NS90PRO2</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>3.99</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NS91VIP2</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>4.86</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NS91VIP3</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>4.69</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NS95VIP2</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>5.21</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>P3707VYH</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>4.86</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>P3845VYHR</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>5.38</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>P3858PWU</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>5.21</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>P3889RR</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>4.86</v>
+      </c>
+      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>P3898</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>5.21</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>STATUSVIP3</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C140">
+        <v>3.99</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SXC2251TG</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>4.51</v>
+      </c>
+      <c r="D141">
+        <v>6</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SXC2251VIP3</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C142">
+        <v>4.34</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SXD2621VIP3</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C143">
+        <v>3.99</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SYC7131VIP3</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C144">
+        <v>3.99</v>
+      </c>
+      <c r="D144">
+        <v>6</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SYC7441VIP3</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C145">
+        <v>5.04</v>
+      </c>
+      <c r="D145">
+        <v>6</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SZC4141VIP3</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C146">
+        <v>4.86</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SZD5031VIP3</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C147">
+        <v>3.99</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SZD5211VIP3</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C148">
+        <v>4.86</v>
+      </c>
+      <c r="D148">
+        <v>6</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SZE6111TG</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>3.99</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SZE6111ZL0</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>3.99</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SZF6101VIP3</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C151">
+        <v>3.64</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SZF6101WT0</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>22WNBU35</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>3.64</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>TPP11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
